--- a/09-Excell/Szenarien Marktanteil E-Auto.xlsx
+++ b/09-Excell/Szenarien Marktanteil E-Auto.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cyrano Golliez\Desktop\ETH\6. Semester\Bachelorarbeit Word\Excell\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cyrano Golliez\Desktop\ETH\6. Semester\Bachelorarbeit\09-Excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="E-Auto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1103,7 +1103,7 @@
   <dimension ref="B1:L52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+      <selection activeCell="D52" sqref="D7:D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/09-Excell/Szenarien Marktanteil E-Auto.xlsx
+++ b/09-Excell/Szenarien Marktanteil E-Auto.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="E-Auto" sheetId="1" r:id="rId1"/>
+    <sheet name="Diagramm" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -114,7 +115,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -127,8 +128,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -384,13 +391,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -420,6 +447,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -536,6 +578,899 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-CH"/>
+              <a:t>Marktanteil E-Autos  </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Diagramm!$B$2:$B$47</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Diagramm!$B$2,Diagramm!$B$7,Diagramm!$B$12,Diagramm!$B$17,Diagramm!$B$22,Diagramm!$B$27,Diagramm!$B$32,Diagramm!$B$37,Diagramm!$B$42,Diagramm!$B$47)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2055</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2060</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Diagramm!$C$2:$C$47</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Diagramm!$C$2,Diagramm!$C$7,Diagramm!$C$12,Diagramm!$C$17,Diagramm!$C$22,Diagramm!$C$27,Diagramm!$C$32,Diagramm!$C$37,Diagramm!$C$42,Diagramm!$C$47)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.16900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.504193548387097</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.920161290322586</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.336129032258071</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46.752096774193561</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61.16806451612905</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75.584032258064539</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="325598376"/>
+        <c:axId val="325598768"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="325598376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="325598768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="325598768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="325598376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -824,6 +1759,396 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>137159</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>746759</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.67611</cdr:x>
+      <cdr:y>0.04074</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.80845</cdr:x>
+      <cdr:y>0.10352</cdr:y>
+    </cdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="2" name="Textfeld 2"/>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="3091180" y="111760"/>
+              <a:ext cx="605037" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          </cdr:spPr>
+          <cdr:style>
+            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </cdr:style>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:lvl1pPr marL="0" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="de-CH" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="el-GR" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>Φ</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐸</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐴𝑢𝑡𝑜𝑠</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="de-CH" sz="1100"/>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="2" name="Textfeld 2"/>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="3091180" y="111760"/>
+              <a:ext cx="605037" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          </cdr:spPr>
+          <cdr:style>
+            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </cdr:style>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:lvl1pPr marL="0" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="el-GR" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>Φ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐸−𝐴𝑢𝑡𝑜𝑠)</a:t>
+              </a:r>
+              <a:endParaRPr lang="de-CH" sz="1100"/>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="B6:E52" totalsRowShown="0">
   <autoFilter ref="B6:E52"/>
@@ -1102,8 +2427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D52" sqref="D7:D52"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1116,57 +2441,57 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:12" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="33"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="12"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="34"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="39"/>
       <c r="G3" s="12"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="28"/>
-      <c r="K3" s="15" t="s">
+      <c r="J3" s="33"/>
+      <c r="K3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="16"/>
+      <c r="L3" s="21"/>
     </row>
     <row r="4" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="35"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="40"/>
       <c r="G4" s="12"/>
       <c r="H4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="29">
+      <c r="I4" s="34">
         <v>0.1</v>
       </c>
-      <c r="J4" s="30"/>
-      <c r="K4" s="17">
+      <c r="J4" s="35"/>
+      <c r="K4" s="22">
         <v>0.125</v>
       </c>
-      <c r="L4" s="18"/>
+      <c r="L4" s="23"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="H5" s="22"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="24"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="29"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
@@ -1184,14 +2509,14 @@
       <c r="H6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="29">
+      <c r="I6" s="34">
         <v>0.5</v>
       </c>
-      <c r="J6" s="30"/>
-      <c r="K6" s="19">
+      <c r="J6" s="35"/>
+      <c r="K6" s="24">
         <v>0.125</v>
       </c>
-      <c r="L6" s="18"/>
+      <c r="L6" s="23"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="7">
@@ -1206,11 +2531,11 @@
       <c r="E7" s="8">
         <v>0.16900000000000001</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="24"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="29"/>
     </row>
     <row r="8" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="7">
@@ -1229,14 +2554,14 @@
       <c r="H8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="31">
+      <c r="I8" s="36">
         <v>0.9</v>
       </c>
-      <c r="J8" s="32"/>
-      <c r="K8" s="20">
+      <c r="J8" s="37"/>
+      <c r="K8" s="25">
         <v>0.75</v>
       </c>
-      <c r="L8" s="21"/>
+      <c r="L8" s="26"/>
     </row>
     <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="7">
@@ -1267,11 +2592,11 @@
       <c r="E10" s="8">
         <v>0.41699999999999998</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="27"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="32"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="7">
@@ -1323,11 +2648,11 @@
         <f t="shared" ref="E13:E41" si="3">E12+(($E$42-$E$11)/($B$42-$B$11))</f>
         <v>6.3873870967741944</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="7">
@@ -1346,11 +2671,11 @@
         <f t="shared" si="3"/>
         <v>9.2705806451612922</v>
       </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="7">
@@ -1369,11 +2694,11 @@
         <f t="shared" si="3"/>
         <v>12.15377419354839</v>
       </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="7">
@@ -1392,11 +2717,11 @@
         <f t="shared" si="3"/>
         <v>15.036967741935488</v>
       </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="7">
@@ -1415,11 +2740,11 @@
         <f t="shared" si="3"/>
         <v>17.920161290322586</v>
       </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="7">
@@ -2065,4 +3390,436 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="13">
+        <v>2015</v>
+      </c>
+      <c r="C2" s="14">
+        <v>0.16900000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="15">
+        <f>B2+1</f>
+        <v>2016</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.23699999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="13">
+        <f t="shared" ref="B4:B47" si="0">B3+1</f>
+        <v>2017</v>
+      </c>
+      <c r="C4" s="14">
+        <v>0.318</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="15">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.41699999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="13">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0.621</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="15">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="C7" s="8">
+        <v>3.504193548387097</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="13">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="C8" s="14">
+        <v>6.3873870967741944</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="15">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="C9" s="8">
+        <v>9.2705806451612922</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="13">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="C10" s="14">
+        <v>12.15377419354839</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="15">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="C11" s="8">
+        <v>15.036967741935488</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="13">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="C12" s="14">
+        <v>17.920161290322586</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="15">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="C13" s="8">
+        <v>20.803354838709684</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="13">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="C14" s="14">
+        <v>23.686548387096781</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="15">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="C15" s="8">
+        <v>26.569741935483879</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="13">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="C16" s="14">
+        <v>29.452935483870977</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="15">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="C17" s="8">
+        <v>32.336129032258071</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="13">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+      <c r="C18" s="14">
+        <v>35.219322580645169</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="15">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
+      <c r="C19" s="8">
+        <v>38.102516129032267</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="13">
+        <f t="shared" si="0"/>
+        <v>2033</v>
+      </c>
+      <c r="C20" s="14">
+        <v>40.985709677419365</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="15">
+        <f t="shared" si="0"/>
+        <v>2034</v>
+      </c>
+      <c r="C21" s="8">
+        <v>43.868903225806463</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="13">
+        <f t="shared" si="0"/>
+        <v>2035</v>
+      </c>
+      <c r="C22" s="14">
+        <v>46.752096774193561</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="15">
+        <f t="shared" si="0"/>
+        <v>2036</v>
+      </c>
+      <c r="C23" s="8">
+        <v>49.635290322580659</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="13">
+        <f t="shared" si="0"/>
+        <v>2037</v>
+      </c>
+      <c r="C24" s="14">
+        <v>52.518483870967756</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="15">
+        <f t="shared" si="0"/>
+        <v>2038</v>
+      </c>
+      <c r="C25" s="8">
+        <v>55.401677419354854</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="13">
+        <f t="shared" si="0"/>
+        <v>2039</v>
+      </c>
+      <c r="C26" s="14">
+        <v>58.284870967741952</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="15">
+        <f t="shared" si="0"/>
+        <v>2040</v>
+      </c>
+      <c r="C27" s="8">
+        <v>61.16806451612905</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="13">
+        <f t="shared" si="0"/>
+        <v>2041</v>
+      </c>
+      <c r="C28" s="14">
+        <v>64.051258064516148</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="15">
+        <f t="shared" si="0"/>
+        <v>2042</v>
+      </c>
+      <c r="C29" s="8">
+        <v>66.934451612903246</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30" s="13">
+        <f t="shared" si="0"/>
+        <v>2043</v>
+      </c>
+      <c r="C30" s="14">
+        <v>69.817645161290343</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B31" s="15">
+        <f t="shared" si="0"/>
+        <v>2044</v>
+      </c>
+      <c r="C31" s="8">
+        <v>72.700838709677441</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="13">
+        <f t="shared" si="0"/>
+        <v>2045</v>
+      </c>
+      <c r="C32" s="14">
+        <v>75.584032258064539</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="15">
+        <f t="shared" si="0"/>
+        <v>2046</v>
+      </c>
+      <c r="C33" s="8">
+        <v>78.467225806451637</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="13">
+        <f t="shared" si="0"/>
+        <v>2047</v>
+      </c>
+      <c r="C34" s="14">
+        <v>81.350419354838735</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="15">
+        <f t="shared" si="0"/>
+        <v>2048</v>
+      </c>
+      <c r="C35" s="8">
+        <v>84.233612903225833</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="13">
+        <f>B35+1</f>
+        <v>2049</v>
+      </c>
+      <c r="C36" s="14">
+        <v>87.116806451612931</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="15">
+        <f t="shared" si="0"/>
+        <v>2050</v>
+      </c>
+      <c r="C37" s="11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="13">
+        <f t="shared" si="0"/>
+        <v>2051</v>
+      </c>
+      <c r="C38" s="14">
+        <v>92.883193548387098</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" s="15">
+        <f t="shared" si="0"/>
+        <v>2052</v>
+      </c>
+      <c r="C39" s="8">
+        <v>95.766387096774196</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40" s="13">
+        <f t="shared" si="0"/>
+        <v>2053</v>
+      </c>
+      <c r="C40" s="14">
+        <v>98.649580645161294</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B41" s="15">
+        <f t="shared" si="0"/>
+        <v>2054</v>
+      </c>
+      <c r="C41" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42" s="13">
+        <f t="shared" si="0"/>
+        <v>2055</v>
+      </c>
+      <c r="C42" s="14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B43" s="15">
+        <f t="shared" si="0"/>
+        <v>2056</v>
+      </c>
+      <c r="C43" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44" s="13">
+        <f t="shared" si="0"/>
+        <v>2057</v>
+      </c>
+      <c r="C44" s="14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B45" s="15">
+        <f t="shared" si="0"/>
+        <v>2058</v>
+      </c>
+      <c r="C45" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B46" s="13">
+        <f>B45+1</f>
+        <v>2059</v>
+      </c>
+      <c r="C46" s="14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B47" s="16">
+        <f t="shared" si="0"/>
+        <v>2060</v>
+      </c>
+      <c r="C47" s="17">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/09-Excell/Szenarien Marktanteil E-Auto.xlsx
+++ b/09-Excell/Szenarien Marktanteil E-Auto.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="E-Auto" sheetId="1" r:id="rId1"/>
@@ -77,10 +77,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -417,7 +418,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -464,6 +465,17 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -620,6 +632,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -723,43 +736,43 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Diagramm!$C$2:$C$47</c15:sqref>
+                    <c15:sqref>Diagramm!$D$2:$D$47</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Diagramm!$C$2,Diagramm!$C$7,Diagramm!$C$12,Diagramm!$C$17,Diagramm!$C$22,Diagramm!$C$27,Diagramm!$C$32,Diagramm!$C$37,Diagramm!$C$42,Diagramm!$C$47)</c:f>
+              <c:f>(Diagramm!$D$2,Diagramm!$D$7,Diagramm!$D$12,Diagramm!$D$17,Diagramm!$D$22,Diagramm!$D$27,Diagramm!$D$32,Diagramm!$D$37,Diagramm!$D$42,Diagramm!$D$47)</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.16900000000000001</c:v>
+                  <c:v>1.6900000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.504193548387097</c:v>
+                  <c:v>3.5041935483870967E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.920161290322586</c:v>
+                  <c:v>0.17920161290322587</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.336129032258071</c:v>
+                  <c:v>0.32336129032258071</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46.752096774193561</c:v>
+                  <c:v>0.46752096774193563</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>61.16806451612905</c:v>
+                  <c:v>0.6116806451612905</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>75.584032258064539</c:v>
+                  <c:v>0.75584032258064537</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>90</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>100</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -775,11 +788,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="325598376"/>
-        <c:axId val="325598768"/>
+        <c:axId val="584636872"/>
+        <c:axId val="584635696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="325598376"/>
+        <c:axId val="584636872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -822,7 +835,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325598768"/>
+        <c:crossAx val="584635696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -830,10 +843,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="325598768"/>
+        <c:axId val="584635696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -851,7 +864,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -882,10 +895,563 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325598376"/>
+        <c:crossAx val="584636872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="10"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-CH"/>
+              <a:t>Marktanteil E-Autos - Zustand 1  </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Diagramm!$B$2:$B$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2051</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2052</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2053</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2054</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2055</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2056</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2057</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2058</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2059</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2060</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Diagramm!$G$2:$G$47</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>1.6900000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3699999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1800000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1700000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.2100000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2138709677419356E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8067419354838712E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.3996129032258061E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.9924838709677417E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.5853548387096787E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.10178225806451614</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1177109677419355</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13363967741935487</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14956838709677422</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.16549709677419358</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.18142580645161291</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.19735451612903226</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.21328322580645159</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.22921193548387095</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.24514064516129028</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.26106935483870963</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.27699806451612896</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.29292677419354829</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.30885548387096767</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.324784193548387</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.34071290322580638</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.35664161290322577</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.37257032258064515</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.38849903225806448</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.40442774193548386</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.42035645161290325</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.43628516129032263</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.45221387096774202</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.4681425806451614</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.48407129032258078</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.51592870967741933</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.53185741935483877</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.5477861290322581</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.56371483870967753</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.57964354838709686</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.5955722580645163</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.61150096774193563</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.62742967741935507</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.64335838709677429</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.65928709677419362</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="584637656"/>
+        <c:axId val="584638440"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="584637656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="584638440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="584638440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="584637656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -957,7 +1523,550 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1763,13 +2872,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>137159</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>746759</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
@@ -1788,6 +2897,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2001,6 +3142,359 @@
             <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:off x="3091180" y="111760"/>
               <a:ext cx="605037" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          </cdr:spPr>
+          <cdr:style>
+            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </cdr:style>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:lvl1pPr marL="0" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="el-GR" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>Φ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐸−𝐴𝑢𝑡𝑜𝑠)</a:t>
+              </a:r>
+              <a:endParaRPr lang="de-CH" sz="1100"/>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.76444</cdr:x>
+      <cdr:y>0.04074</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.89678</cdr:x>
+      <cdr:y>0.10352</cdr:y>
+    </cdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="2" name="Textfeld 2"/>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="3495035" y="111758"/>
+              <a:ext cx="605058" cy="172218"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          </cdr:spPr>
+          <cdr:style>
+            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </cdr:style>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:lvl1pPr marL="0" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="de-CH" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="el-GR" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>Φ</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐸</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐴𝑢𝑡𝑜𝑠</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="de-CH" sz="1100"/>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="2" name="Textfeld 2"/>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="3495035" y="111758"/>
+              <a:ext cx="605058" cy="172218"/>
             </a:xfrm>
             <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
               <a:avLst/>
@@ -2427,8 +3921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2441,57 +3935,57 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:12" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="38"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="43"/>
       <c r="G2" s="12"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="39"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="44"/>
       <c r="G3" s="12"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="33"/>
-      <c r="K3" s="20" t="s">
+      <c r="J3" s="38"/>
+      <c r="K3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="21"/>
+      <c r="L3" s="26"/>
     </row>
     <row r="4" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="40"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="45"/>
       <c r="G4" s="12"/>
       <c r="H4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I4" s="39">
         <v>0.1</v>
       </c>
-      <c r="J4" s="35"/>
-      <c r="K4" s="22">
+      <c r="J4" s="40"/>
+      <c r="K4" s="27">
         <v>0.125</v>
       </c>
-      <c r="L4" s="23"/>
+      <c r="L4" s="28"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="H5" s="27"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="29"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="34"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
@@ -2509,14 +4003,14 @@
       <c r="H6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="34">
+      <c r="I6" s="39">
         <v>0.5</v>
       </c>
-      <c r="J6" s="35"/>
-      <c r="K6" s="24">
+      <c r="J6" s="40"/>
+      <c r="K6" s="29">
         <v>0.125</v>
       </c>
-      <c r="L6" s="23"/>
+      <c r="L6" s="28"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="7">
@@ -2531,11 +4025,11 @@
       <c r="E7" s="8">
         <v>0.16900000000000001</v>
       </c>
-      <c r="H7" s="27"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="29"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="34"/>
     </row>
     <row r="8" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="7">
@@ -2554,14 +4048,14 @@
       <c r="H8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="36">
+      <c r="I8" s="41">
         <v>0.9</v>
       </c>
-      <c r="J8" s="37"/>
-      <c r="K8" s="25">
+      <c r="J8" s="42"/>
+      <c r="K8" s="30">
         <v>0.75</v>
       </c>
-      <c r="L8" s="26"/>
+      <c r="L8" s="31"/>
     </row>
     <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="7">
@@ -2592,11 +4086,11 @@
       <c r="E10" s="8">
         <v>0.41699999999999998</v>
       </c>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="32"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="37"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="7">
@@ -2648,11 +4142,11 @@
         <f t="shared" ref="E13:E41" si="3">E12+(($E$42-$E$11)/($B$42-$B$11))</f>
         <v>6.3873870967741944</v>
       </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="7">
@@ -2671,11 +4165,11 @@
         <f t="shared" si="3"/>
         <v>9.2705806451612922</v>
       </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="7">
@@ -2694,11 +4188,11 @@
         <f t="shared" si="3"/>
         <v>12.15377419354839</v>
       </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="7">
@@ -2717,11 +4211,11 @@
         <f t="shared" si="3"/>
         <v>15.036967741935488</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="7">
@@ -2740,11 +4234,11 @@
         <f t="shared" si="3"/>
         <v>17.920161290322586</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="7">
@@ -3394,26 +4888,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C47"/>
+  <dimension ref="B2:G47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="5" max="5" width="1.109375" style="21" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="13">
         <v>2015</v>
       </c>
       <c r="C2" s="14">
         <v>0.16900000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="19">
+        <f>C2/100</f>
+        <v>1.6900000000000001E-3</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="18">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="G2" s="22">
+        <f>F2/100</f>
+        <v>1.6900000000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="15">
         <f>B2+1</f>
         <v>2016</v>
@@ -3421,296 +4929,692 @@
       <c r="C3" s="8">
         <v>0.23699999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="19">
+        <f t="shared" ref="D3:D47" si="0">C3/100</f>
+        <v>2.3699999999999997E-3</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="6">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="G3" s="22">
+        <f t="shared" ref="G3:G47" si="1">F3/100</f>
+        <v>2.3699999999999997E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="13">
-        <f t="shared" ref="B4:B47" si="0">B3+1</f>
+        <f t="shared" ref="B4:B47" si="2">B3+1</f>
         <v>2017</v>
       </c>
       <c r="C4" s="14">
         <v>0.318</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="19">
+        <f t="shared" si="0"/>
+        <v>3.1800000000000001E-3</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="18">
+        <v>0.318</v>
+      </c>
+      <c r="G4" s="22">
+        <f t="shared" si="1"/>
+        <v>3.1800000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2018</v>
       </c>
       <c r="C5" s="8">
         <v>0.41699999999999998</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="19">
+        <f t="shared" si="0"/>
+        <v>4.1700000000000001E-3</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" s="6">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="G5" s="22">
+        <f t="shared" si="1"/>
+        <v>4.1700000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2019</v>
       </c>
       <c r="C6" s="14">
         <v>0.621</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="19">
+        <f t="shared" si="0"/>
+        <v>6.2100000000000002E-3</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="18">
+        <v>0.621</v>
+      </c>
+      <c r="G6" s="22">
+        <f t="shared" si="1"/>
+        <v>6.2100000000000002E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2020</v>
       </c>
       <c r="C7" s="8">
         <v>3.504193548387097</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D7" s="19">
+        <f t="shared" si="0"/>
+        <v>3.5041935483870967E-2</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="8">
+        <v>2.2138709677419355</v>
+      </c>
+      <c r="G7" s="22">
+        <f t="shared" si="1"/>
+        <v>2.2138709677419356E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2021</v>
       </c>
       <c r="C8" s="14">
         <v>6.3873870967741944</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D8" s="19">
+        <f t="shared" si="0"/>
+        <v>6.3873870967741941E-2</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="14">
+        <v>3.806741935483871</v>
+      </c>
+      <c r="G8" s="22">
+        <f t="shared" si="1"/>
+        <v>3.8067419354838712E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2022</v>
       </c>
       <c r="C9" s="8">
         <v>9.2705806451612922</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D9" s="19">
+        <f t="shared" si="0"/>
+        <v>9.2705806451612915E-2</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="8">
+        <v>5.3996129032258064</v>
+      </c>
+      <c r="G9" s="22">
+        <f t="shared" si="1"/>
+        <v>5.3996129032258061E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2023</v>
       </c>
       <c r="C10" s="14">
         <v>12.15377419354839</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D10" s="19">
+        <f t="shared" si="0"/>
+        <v>0.1215377419354839</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="14">
+        <v>6.9924838709677424</v>
+      </c>
+      <c r="G10" s="22">
+        <f t="shared" si="1"/>
+        <v>6.9924838709677417E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2024</v>
       </c>
       <c r="C11" s="8">
         <v>15.036967741935488</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D11" s="19">
+        <f t="shared" si="0"/>
+        <v>0.15036967741935489</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="8">
+        <v>8.5853548387096783</v>
+      </c>
+      <c r="G11" s="22">
+        <f t="shared" si="1"/>
+        <v>8.5853548387096787E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2025</v>
       </c>
       <c r="C12" s="14">
         <v>17.920161290322586</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D12" s="19">
+        <f t="shared" si="0"/>
+        <v>0.17920161290322587</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="14">
+        <v>10.178225806451614</v>
+      </c>
+      <c r="G12" s="22">
+        <f t="shared" si="1"/>
+        <v>0.10178225806451614</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2026</v>
       </c>
       <c r="C13" s="8">
         <v>20.803354838709684</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D13" s="19">
+        <f t="shared" si="0"/>
+        <v>0.20803354838709684</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="8">
+        <v>11.77109677419355</v>
+      </c>
+      <c r="G13" s="22">
+        <f t="shared" si="1"/>
+        <v>0.1177109677419355</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2027</v>
       </c>
       <c r="C14" s="14">
         <v>23.686548387096781</v>
       </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D14" s="19">
+        <f t="shared" si="0"/>
+        <v>0.23686548387096781</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="14">
+        <v>13.363967741935486</v>
+      </c>
+      <c r="G14" s="22">
+        <f t="shared" si="1"/>
+        <v>0.13363967741935487</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2028</v>
       </c>
       <c r="C15" s="8">
         <v>26.569741935483879</v>
       </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D15" s="19">
+        <f t="shared" si="0"/>
+        <v>0.26569741935483882</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="8">
+        <v>14.956838709677422</v>
+      </c>
+      <c r="G15" s="22">
+        <f t="shared" si="1"/>
+        <v>0.14956838709677422</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2029</v>
       </c>
       <c r="C16" s="14">
         <v>29.452935483870977</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D16" s="19">
+        <f t="shared" si="0"/>
+        <v>0.29452935483870979</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="14">
+        <v>16.549709677419358</v>
+      </c>
+      <c r="G16" s="22">
+        <f t="shared" si="1"/>
+        <v>0.16549709677419358</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2030</v>
       </c>
       <c r="C17" s="8">
         <v>32.336129032258071</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D17" s="19">
+        <f t="shared" si="0"/>
+        <v>0.32336129032258071</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="8">
+        <v>18.142580645161292</v>
+      </c>
+      <c r="G17" s="22">
+        <f t="shared" si="1"/>
+        <v>0.18142580645161291</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2031</v>
       </c>
       <c r="C18" s="14">
         <v>35.219322580645169</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D18" s="19">
+        <f t="shared" si="0"/>
+        <v>0.35219322580645168</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="14">
+        <v>19.735451612903226</v>
+      </c>
+      <c r="G18" s="22">
+        <f t="shared" si="1"/>
+        <v>0.19735451612903226</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2032</v>
       </c>
       <c r="C19" s="8">
         <v>38.102516129032267</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D19" s="19">
+        <f t="shared" si="0"/>
+        <v>0.38102516129032266</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="F19" s="8">
+        <v>21.32832258064516</v>
+      </c>
+      <c r="G19" s="22">
+        <f t="shared" si="1"/>
+        <v>0.21328322580645159</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2033</v>
       </c>
       <c r="C20" s="14">
         <v>40.985709677419365</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D20" s="19">
+        <f t="shared" si="0"/>
+        <v>0.40985709677419363</v>
+      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="14">
+        <v>22.921193548387095</v>
+      </c>
+      <c r="G20" s="22">
+        <f t="shared" si="1"/>
+        <v>0.22921193548387095</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2034</v>
       </c>
       <c r="C21" s="8">
         <v>43.868903225806463</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D21" s="19">
+        <f t="shared" si="0"/>
+        <v>0.4386890322580646</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="8">
+        <v>24.514064516129029</v>
+      </c>
+      <c r="G21" s="22">
+        <f t="shared" si="1"/>
+        <v>0.24514064516129028</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2035</v>
       </c>
       <c r="C22" s="14">
         <v>46.752096774193561</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D22" s="19">
+        <f t="shared" si="0"/>
+        <v>0.46752096774193563</v>
+      </c>
+      <c r="E22" s="20"/>
+      <c r="F22" s="14">
+        <v>26.106935483870963</v>
+      </c>
+      <c r="G22" s="22">
+        <f t="shared" si="1"/>
+        <v>0.26106935483870963</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2036</v>
       </c>
       <c r="C23" s="8">
         <v>49.635290322580659</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D23" s="19">
+        <f t="shared" si="0"/>
+        <v>0.49635290322580661</v>
+      </c>
+      <c r="E23" s="20"/>
+      <c r="F23" s="8">
+        <v>27.699806451612897</v>
+      </c>
+      <c r="G23" s="22">
+        <f t="shared" si="1"/>
+        <v>0.27699806451612896</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2037</v>
       </c>
       <c r="C24" s="14">
         <v>52.518483870967756</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D24" s="19">
+        <f t="shared" si="0"/>
+        <v>0.52518483870967758</v>
+      </c>
+      <c r="E24" s="20"/>
+      <c r="F24" s="14">
+        <v>29.292677419354831</v>
+      </c>
+      <c r="G24" s="22">
+        <f t="shared" si="1"/>
+        <v>0.29292677419354829</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2038</v>
       </c>
       <c r="C25" s="8">
         <v>55.401677419354854</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D25" s="19">
+        <f t="shared" si="0"/>
+        <v>0.55401677419354856</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25" s="8">
+        <v>30.885548387096765</v>
+      </c>
+      <c r="G25" s="22">
+        <f t="shared" si="1"/>
+        <v>0.30885548387096767</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2039</v>
       </c>
       <c r="C26" s="14">
         <v>58.284870967741952</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D26" s="19">
+        <f t="shared" si="0"/>
+        <v>0.58284870967741953</v>
+      </c>
+      <c r="E26" s="20"/>
+      <c r="F26" s="14">
+        <v>32.478419354838699</v>
+      </c>
+      <c r="G26" s="22">
+        <f t="shared" si="1"/>
+        <v>0.324784193548387</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2040</v>
       </c>
       <c r="C27" s="8">
         <v>61.16806451612905</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D27" s="19">
+        <f t="shared" si="0"/>
+        <v>0.6116806451612905</v>
+      </c>
+      <c r="E27" s="20"/>
+      <c r="F27" s="8">
+        <v>34.071290322580637</v>
+      </c>
+      <c r="G27" s="22">
+        <f t="shared" si="1"/>
+        <v>0.34071290322580638</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2041</v>
       </c>
       <c r="C28" s="14">
         <v>64.051258064516148</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D28" s="19">
+        <f t="shared" si="0"/>
+        <v>0.64051258064516148</v>
+      </c>
+      <c r="E28" s="20"/>
+      <c r="F28" s="14">
+        <v>35.664161290322575</v>
+      </c>
+      <c r="G28" s="22">
+        <f t="shared" si="1"/>
+        <v>0.35664161290322577</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2042</v>
       </c>
       <c r="C29" s="8">
         <v>66.934451612903246</v>
       </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D29" s="19">
+        <f t="shared" si="0"/>
+        <v>0.66934451612903245</v>
+      </c>
+      <c r="E29" s="20"/>
+      <c r="F29" s="8">
+        <v>37.257032258064513</v>
+      </c>
+      <c r="G29" s="22">
+        <f t="shared" si="1"/>
+        <v>0.37257032258064515</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2043</v>
       </c>
       <c r="C30" s="14">
         <v>69.817645161290343</v>
       </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D30" s="19">
+        <f t="shared" si="0"/>
+        <v>0.69817645161290343</v>
+      </c>
+      <c r="E30" s="20"/>
+      <c r="F30" s="14">
+        <v>38.84990322580645</v>
+      </c>
+      <c r="G30" s="22">
+        <f t="shared" si="1"/>
+        <v>0.38849903225806448</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2044</v>
       </c>
       <c r="C31" s="8">
         <v>72.700838709677441</v>
       </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D31" s="19">
+        <f t="shared" si="0"/>
+        <v>0.7270083870967744</v>
+      </c>
+      <c r="E31" s="20"/>
+      <c r="F31" s="8">
+        <v>40.442774193548388</v>
+      </c>
+      <c r="G31" s="22">
+        <f t="shared" si="1"/>
+        <v>0.40442774193548386</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2045</v>
       </c>
       <c r="C32" s="14">
         <v>75.584032258064539</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D32" s="19">
+        <f t="shared" si="0"/>
+        <v>0.75584032258064537</v>
+      </c>
+      <c r="E32" s="20"/>
+      <c r="F32" s="14">
+        <v>42.035645161290326</v>
+      </c>
+      <c r="G32" s="22">
+        <f t="shared" si="1"/>
+        <v>0.42035645161290325</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2046</v>
       </c>
       <c r="C33" s="8">
         <v>78.467225806451637</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D33" s="19">
+        <f t="shared" si="0"/>
+        <v>0.78467225806451635</v>
+      </c>
+      <c r="E33" s="20"/>
+      <c r="F33" s="8">
+        <v>43.628516129032263</v>
+      </c>
+      <c r="G33" s="22">
+        <f t="shared" si="1"/>
+        <v>0.43628516129032263</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2047</v>
       </c>
       <c r="C34" s="14">
         <v>81.350419354838735</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D34" s="19">
+        <f t="shared" si="0"/>
+        <v>0.81350419354838732</v>
+      </c>
+      <c r="E34" s="20"/>
+      <c r="F34" s="14">
+        <v>45.221387096774201</v>
+      </c>
+      <c r="G34" s="22">
+        <f t="shared" si="1"/>
+        <v>0.45221387096774202</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2048</v>
       </c>
       <c r="C35" s="8">
         <v>84.233612903225833</v>
       </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D35" s="19">
+        <f t="shared" si="0"/>
+        <v>0.8423361290322583</v>
+      </c>
+      <c r="E35" s="20"/>
+      <c r="F35" s="8">
+        <v>46.814258064516139</v>
+      </c>
+      <c r="G35" s="22">
+        <f t="shared" si="1"/>
+        <v>0.4681425806451614</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="13">
         <f>B35+1</f>
         <v>2049</v>
@@ -3718,89 +5622,209 @@
       <c r="C36" s="14">
         <v>87.116806451612931</v>
       </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D36" s="19">
+        <f t="shared" si="0"/>
+        <v>0.87116806451612927</v>
+      </c>
+      <c r="E36" s="20"/>
+      <c r="F36" s="14">
+        <v>48.407129032258077</v>
+      </c>
+      <c r="G36" s="22">
+        <f t="shared" si="1"/>
+        <v>0.48407129032258078</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2050</v>
       </c>
       <c r="C37" s="11">
         <v>90</v>
       </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D37" s="19">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="E37" s="20"/>
+      <c r="F37" s="10">
+        <v>50</v>
+      </c>
+      <c r="G37" s="22">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2051</v>
       </c>
       <c r="C38" s="14">
         <v>92.883193548387098</v>
       </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D38" s="19">
+        <f t="shared" si="0"/>
+        <v>0.928831935483871</v>
+      </c>
+      <c r="E38" s="20"/>
+      <c r="F38" s="14">
+        <v>51.592870967741938</v>
+      </c>
+      <c r="G38" s="22">
+        <f t="shared" si="1"/>
+        <v>0.51592870967741933</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2052</v>
       </c>
       <c r="C39" s="8">
         <v>95.766387096774196</v>
       </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D39" s="19">
+        <f t="shared" si="0"/>
+        <v>0.95766387096774197</v>
+      </c>
+      <c r="E39" s="20"/>
+      <c r="F39" s="8">
+        <v>53.185741935483875</v>
+      </c>
+      <c r="G39" s="22">
+        <f t="shared" si="1"/>
+        <v>0.53185741935483877</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2053</v>
       </c>
       <c r="C40" s="14">
         <v>98.649580645161294</v>
       </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D40" s="19">
+        <f t="shared" si="0"/>
+        <v>0.98649580645161294</v>
+      </c>
+      <c r="E40" s="20"/>
+      <c r="F40" s="14">
+        <v>54.778612903225813</v>
+      </c>
+      <c r="G40" s="22">
+        <f t="shared" si="1"/>
+        <v>0.5477861290322581</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2054</v>
       </c>
       <c r="C41" s="8">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D41" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E41" s="20"/>
+      <c r="F41" s="8">
+        <v>56.371483870967751</v>
+      </c>
+      <c r="G41" s="22">
+        <f t="shared" si="1"/>
+        <v>0.56371483870967753</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2055</v>
       </c>
       <c r="C42" s="14">
         <v>100</v>
       </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D42" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E42" s="20"/>
+      <c r="F42" s="14">
+        <v>57.964354838709689</v>
+      </c>
+      <c r="G42" s="22">
+        <f t="shared" si="1"/>
+        <v>0.57964354838709686</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2056</v>
       </c>
       <c r="C43" s="8">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D43" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E43" s="20"/>
+      <c r="F43" s="8">
+        <v>59.557225806451626</v>
+      </c>
+      <c r="G43" s="22">
+        <f t="shared" si="1"/>
+        <v>0.5955722580645163</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2057</v>
       </c>
       <c r="C44" s="14">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D44" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E44" s="20"/>
+      <c r="F44" s="14">
+        <v>61.150096774193564</v>
+      </c>
+      <c r="G44" s="22">
+        <f t="shared" si="1"/>
+        <v>0.61150096774193563</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2058</v>
       </c>
       <c r="C45" s="8">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D45" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E45" s="20"/>
+      <c r="F45" s="8">
+        <v>62.742967741935502</v>
+      </c>
+      <c r="G45" s="22">
+        <f t="shared" si="1"/>
+        <v>0.62742967741935507</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="13">
         <f>B45+1</f>
         <v>2059</v>
@@ -3808,14 +5832,38 @@
       <c r="C46" s="14">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D46" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E46" s="20"/>
+      <c r="F46" s="14">
+        <v>64.335838709677432</v>
+      </c>
+      <c r="G46" s="22">
+        <f t="shared" si="1"/>
+        <v>0.64335838709677429</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2060</v>
       </c>
       <c r="C47" s="17">
         <v>100</v>
+      </c>
+      <c r="D47" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E47" s="20"/>
+      <c r="F47" s="17">
+        <v>65.928709677419363</v>
+      </c>
+      <c r="G47" s="22">
+        <f t="shared" si="1"/>
+        <v>0.65928709677419362</v>
       </c>
     </row>
   </sheetData>

--- a/09-Excell/Szenarien Marktanteil E-Auto.xlsx
+++ b/09-Excell/Szenarien Marktanteil E-Auto.xlsx
@@ -788,11 +788,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="584636872"/>
-        <c:axId val="584635696"/>
+        <c:axId val="448316384"/>
+        <c:axId val="448315600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="584636872"/>
+        <c:axId val="448316384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -835,7 +835,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584635696"/>
+        <c:crossAx val="448315600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -843,7 +843,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="584635696"/>
+        <c:axId val="448315600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -895,7 +895,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584636872"/>
+        <c:crossAx val="448316384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -1038,146 +1038,45 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Diagramm!$B$2:$B$47</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Diagramm!$B$2:$B$47</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Diagramm!$B$2,Diagramm!$B$7,Diagramm!$B$12,Diagramm!$B$17,Diagramm!$B$22,Diagramm!$B$27,Diagramm!$B$32,Diagramm!$B$37,Diagramm!$B$42,Diagramm!$B$47)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2015</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2016</c:v>
+                  <c:v>2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2017</c:v>
+                  <c:v>2025</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2018</c:v>
+                  <c:v>2030</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2019</c:v>
+                  <c:v>2035</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2020</c:v>
+                  <c:v>2040</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2021</c:v>
+                  <c:v>2045</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2022</c:v>
+                  <c:v>2050</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2023</c:v>
+                  <c:v>2055</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2050</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2051</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2052</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2053</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2054</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2055</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2056</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2057</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2058</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2059</c:v>
-                </c:pt>
-                <c:pt idx="45">
                   <c:v>2060</c:v>
                 </c:pt>
               </c:numCache>
@@ -1185,146 +1084,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Diagramm!$G$2:$G$47</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Diagramm!$G$2:$G$47</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Diagramm!$G$2,Diagramm!$G$7,Diagramm!$G$12,Diagramm!$G$17,Diagramm!$G$22,Diagramm!$G$27,Diagramm!$G$32,Diagramm!$G$37,Diagramm!$G$42,Diagramm!$G$47)</c:f>
               <c:numCache>
                 <c:formatCode>0.000%</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1.6900000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3699999999999997E-3</c:v>
+                  <c:v>2.2138709677419356E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1800000000000001E-3</c:v>
+                  <c:v>0.10178225806451614</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1700000000000001E-3</c:v>
+                  <c:v>0.18142580645161291</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.2100000000000002E-3</c:v>
+                  <c:v>0.26106935483870963</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2138709677419356E-2</c:v>
+                  <c:v>0.34071290322580638</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.8067419354838712E-2</c:v>
+                  <c:v>0.42035645161290325</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.3996129032258061E-2</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.9924838709677417E-2</c:v>
+                  <c:v>0.57964354838709686</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.5853548387096787E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.10178225806451614</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.1177109677419355</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.13363967741935487</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.14956838709677422</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.16549709677419358</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.18142580645161291</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.19735451612903226</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.21328322580645159</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.22921193548387095</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.24514064516129028</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.26106935483870963</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.27699806451612896</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.29292677419354829</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.30885548387096767</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.324784193548387</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.34071290322580638</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.35664161290322577</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.37257032258064515</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.38849903225806448</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.40442774193548386</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.42035645161290325</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.43628516129032263</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.45221387096774202</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.4681425806451614</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.48407129032258078</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.51592870967741933</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.53185741935483877</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.5477861290322581</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.56371483870967753</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.57964354838709686</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.5955722580645163</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.61150096774193563</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.62742967741935507</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.64335838709677429</c:v>
-                </c:pt>
-                <c:pt idx="45">
                   <c:v>0.65928709677419362</c:v>
                 </c:pt>
               </c:numCache>
@@ -1341,11 +1139,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="584637656"/>
-        <c:axId val="584638440"/>
+        <c:axId val="448317168"/>
+        <c:axId val="448318344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="584637656"/>
+        <c:axId val="448317168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1388,7 +1186,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584638440"/>
+        <c:crossAx val="448318344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1396,7 +1194,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="584638440"/>
+        <c:axId val="448318344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1448,7 +1246,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584637656"/>
+        <c:crossAx val="448317168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -4890,8 +4688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/09-Excell/Szenarien Marktanteil E-Auto.xlsx
+++ b/09-Excell/Szenarien Marktanteil E-Auto.xlsx
@@ -788,11 +788,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="448316384"/>
-        <c:axId val="448315600"/>
+        <c:axId val="441057176"/>
+        <c:axId val="441051688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="448316384"/>
+        <c:axId val="441057176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -835,7 +835,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448315600"/>
+        <c:crossAx val="441051688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -843,7 +843,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="448315600"/>
+        <c:axId val="441051688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -895,7 +895,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448316384"/>
+        <c:crossAx val="441057176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -978,7 +978,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-CH"/>
-              <a:t>Marktanteil E-Autos - Zustand 1  </a:t>
+              <a:t>Marktanteil E-Autos - Parameterauswahl 1</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1139,11 +1139,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="448317168"/>
-        <c:axId val="448318344"/>
+        <c:axId val="441052864"/>
+        <c:axId val="441056392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="448317168"/>
+        <c:axId val="441052864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1186,7 +1186,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448318344"/>
+        <c:crossAx val="441056392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1194,7 +1194,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="448318344"/>
+        <c:axId val="441056392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1246,7 +1246,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448317168"/>
+        <c:crossAx val="441052864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -3092,15 +3092,15 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.76444</cdr:x>
-      <cdr:y>0.04074</cdr:y>
+      <cdr:x>0.85944</cdr:x>
+      <cdr:y>0.04352</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.89678</cdr:x>
-      <cdr:y>0.10352</cdr:y>
+      <cdr:x>0.99178</cdr:x>
+      <cdr:y>0.1063</cdr:y>
     </cdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
             <cdr:cNvPr id="2" name="Textfeld 2"/>
@@ -3108,7 +3108,7 @@
           </cdr:nvSpPr>
           <cdr:spPr>
             <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:off x="3495035" y="111758"/>
+              <a:off x="3929360" y="119378"/>
               <a:ext cx="605058" cy="172218"/>
             </a:xfrm>
             <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
@@ -3283,7 +3283,7 @@
           </cdr:txBody>
         </cdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
             <cdr:cNvPr id="2" name="Textfeld 2"/>
@@ -3291,7 +3291,7 @@
           </cdr:nvSpPr>
           <cdr:spPr>
             <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:off x="3495035" y="111758"/>
+              <a:off x="3929360" y="119378"/>
               <a:ext cx="605058" cy="172218"/>
             </a:xfrm>
             <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
@@ -4688,8 +4688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
